--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.96483240382202</v>
+        <v>106.0751816714795</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.5668291306915</v>
+        <v>145.1367432695948</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.2965914031703</v>
+        <v>131.2850961926825</v>
       </c>
       <c r="AD2" t="n">
-        <v>93964.83240382202</v>
+        <v>106075.1816714795</v>
       </c>
       <c r="AE2" t="n">
-        <v>128566.8291306915</v>
+        <v>145136.7432695948</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.256545442423822e-06</v>
+        <v>1.157624712235841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.429166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>116296.5914031703</v>
+        <v>131285.0961926825</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.26636265816143</v>
+        <v>57.29137107124726</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.93543439985515</v>
+        <v>78.38858141656084</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.02440346767394</v>
+        <v>70.90728522524735</v>
       </c>
       <c r="AD3" t="n">
-        <v>45266.36265816144</v>
+        <v>57291.37107124725</v>
       </c>
       <c r="AE3" t="n">
-        <v>61935.43439985515</v>
+        <v>78388.58141656085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.075474588012513e-05</v>
+        <v>1.989909562588627e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>56024.40346767394</v>
+        <v>70907.28522524735</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.61382872414316</v>
+        <v>39.61391823269421</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.20138809898836</v>
+        <v>54.20151056853675</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.02848369105114</v>
+        <v>49.0285944722777</v>
       </c>
       <c r="AD4" t="n">
-        <v>39613.82872414316</v>
+        <v>39613.91823269421</v>
       </c>
       <c r="AE4" t="n">
-        <v>54201.38809898836</v>
+        <v>54201.51056853675</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252198983492547e-05</v>
+        <v>2.316895963223434e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.213541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>49028.48369105114</v>
+        <v>49028.59447227771</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.94154615187907</v>
+        <v>37.94163566043012</v>
       </c>
       <c r="AB5" t="n">
-        <v>51.91329730772747</v>
+        <v>51.91341977727585</v>
       </c>
       <c r="AC5" t="n">
-        <v>46.95876507354577</v>
+        <v>46.95887585477234</v>
       </c>
       <c r="AD5" t="n">
-        <v>37941.54615187907</v>
+        <v>37941.63566043013</v>
       </c>
       <c r="AE5" t="n">
-        <v>51913.29730772747</v>
+        <v>51913.41977727585</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.303156414020181e-05</v>
+        <v>2.411180551090149e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.165625</v>
       </c>
       <c r="AH5" t="n">
-        <v>46958.76507354577</v>
+        <v>46958.87585477234</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>37.90490676593648</v>
+        <v>37.90499627448753</v>
       </c>
       <c r="AB6" t="n">
-        <v>51.86316568346542</v>
+        <v>51.8632881530138</v>
       </c>
       <c r="AC6" t="n">
-        <v>46.91341794114297</v>
+        <v>46.91352872236954</v>
       </c>
       <c r="AD6" t="n">
-        <v>37904.90676593648</v>
+        <v>37904.99627448753</v>
       </c>
       <c r="AE6" t="n">
-        <v>51863.16568346542</v>
+        <v>51863.2881530138</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.305971983471035e-05</v>
+        <v>2.416390091730938e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>1.163541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>46913.41794114297</v>
+        <v>46913.52872236954</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.85426749572523</v>
+        <v>69.61797962844233</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.15876113776886</v>
+        <v>95.25439105609593</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.60396007481755</v>
+        <v>86.16344566410308</v>
       </c>
       <c r="AD2" t="n">
-        <v>57854.26749572523</v>
+        <v>69617.97962844232</v>
       </c>
       <c r="AE2" t="n">
-        <v>79158.76113776886</v>
+        <v>95254.39105609592</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.159241058331202e-06</v>
+        <v>1.555277269242277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71603.96007481754</v>
+        <v>86163.44566410308</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.96820147435981</v>
+        <v>39.96829098291084</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.68625652965478</v>
+        <v>54.68637899920316</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.46707695921332</v>
+        <v>49.46718774043988</v>
       </c>
       <c r="AD3" t="n">
-        <v>39968.20147435981</v>
+        <v>39968.29098291085</v>
       </c>
       <c r="AE3" t="n">
-        <v>54686.25652965478</v>
+        <v>54686.37899920317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.20163368313605e-05</v>
+        <v>2.290499251065899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.308333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>49467.07695921331</v>
+        <v>49467.18774043988</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.98648022423553</v>
+        <v>35.98656973278657</v>
       </c>
       <c r="AB4" t="n">
-        <v>49.2382898541171</v>
+        <v>49.23841232366547</v>
       </c>
       <c r="AC4" t="n">
-        <v>44.53905657690347</v>
+        <v>44.53916735813005</v>
       </c>
       <c r="AD4" t="n">
-        <v>35986.48022423553</v>
+        <v>35986.56973278657</v>
       </c>
       <c r="AE4" t="n">
-        <v>49238.2898541171</v>
+        <v>49238.41232366547</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.351251209913624e-05</v>
+        <v>2.57569334793574e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.163541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>44539.05657690347</v>
+        <v>44539.16735813005</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>35.97319782195866</v>
+        <v>35.97328733050971</v>
       </c>
       <c r="AB5" t="n">
-        <v>49.22011628534376</v>
+        <v>49.22023875489212</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.52261746802704</v>
+        <v>44.5227282492536</v>
       </c>
       <c r="AD5" t="n">
-        <v>35973.19782195867</v>
+        <v>35973.28733050971</v>
       </c>
       <c r="AE5" t="n">
-        <v>49220.11628534376</v>
+        <v>49220.23875489213</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352262343088336e-05</v>
+        <v>2.57762072381735e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>44522.61746802704</v>
+        <v>44522.7282492536</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.19722558252778</v>
+        <v>31.19731509107883</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.68542036636136</v>
+        <v>42.68554283590974</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.61158375602956</v>
+        <v>38.61169453725613</v>
       </c>
       <c r="AD2" t="n">
-        <v>31197.22558252778</v>
+        <v>31197.31509107883</v>
       </c>
       <c r="AE2" t="n">
-        <v>42685.42036636137</v>
+        <v>42685.54283590974</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.432541721685766e-05</v>
+        <v>3.050938966818654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.225</v>
       </c>
       <c r="AH2" t="n">
-        <v>38611.58375602956</v>
+        <v>38611.69453725613</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.06653955769452</v>
+        <v>31.06662906624557</v>
       </c>
       <c r="AB3" t="n">
-        <v>42.50660998172486</v>
+        <v>42.50673245127324</v>
       </c>
       <c r="AC3" t="n">
-        <v>38.44983878354027</v>
+        <v>38.44994956476685</v>
       </c>
       <c r="AD3" t="n">
-        <v>31066.53955769452</v>
+        <v>31066.62906624557</v>
       </c>
       <c r="AE3" t="n">
-        <v>42506.60998172485</v>
+        <v>42506.73245127324</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.447141967050669e-05</v>
+        <v>3.082033668518845e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.2125</v>
       </c>
       <c r="AH3" t="n">
-        <v>38449.83878354028</v>
+        <v>38449.94956476684</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.8348103848768</v>
+        <v>48.63601423048759</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.76725672246594</v>
+        <v>66.54594033964506</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.82666239677194</v>
+        <v>60.19488919145749</v>
       </c>
       <c r="AD2" t="n">
-        <v>37834.8103848768</v>
+        <v>48636.01423048759</v>
       </c>
       <c r="AE2" t="n">
-        <v>51767.25672246594</v>
+        <v>66545.94033964505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.190145118379402e-05</v>
+        <v>2.416406061160287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.410416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>46826.66239677194</v>
+        <v>60194.88919145749</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.89578014510233</v>
+        <v>32.89586965365337</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.00945765380325</v>
+        <v>45.00958012335164</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.71381818657174</v>
+        <v>40.71392896779831</v>
       </c>
       <c r="AD3" t="n">
-        <v>32895.78014510233</v>
+        <v>32895.86965365337</v>
       </c>
       <c r="AE3" t="n">
-        <v>45009.45765380326</v>
+        <v>45009.58012335164</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415898127433217e-05</v>
+        <v>2.87476271950261e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.185416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>40713.81818657174</v>
+        <v>40713.92896779831</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.39054685734477</v>
+        <v>30.39063636589582</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.58168694641763</v>
+        <v>41.58180941596602</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.6131891045824</v>
+        <v>37.61329988580896</v>
       </c>
       <c r="AD2" t="n">
-        <v>30390.54685734477</v>
+        <v>30390.63636589581</v>
       </c>
       <c r="AE2" t="n">
-        <v>41581.68694641763</v>
+        <v>41581.80941596602</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387826412238044e-05</v>
+        <v>3.090418344190938e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>37613.18910458239</v>
+        <v>37613.29988580896</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.4675286455353</v>
+        <v>86.25950762710639</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8897579682822</v>
+        <v>118.0240638362567</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.16554247098836</v>
+        <v>106.760012831569</v>
       </c>
       <c r="AD2" t="n">
-        <v>74467.52864553529</v>
+        <v>86259.50762710639</v>
       </c>
       <c r="AE2" t="n">
-        <v>101889.7579682822</v>
+        <v>118024.0638362567</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.664637402175376e-06</v>
+        <v>1.449201793320086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.032291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92165.54247098835</v>
+        <v>106760.012831569</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.94134609958198</v>
+        <v>53.6479842265849</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.38600005486795</v>
+        <v>73.40353880081285</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.909160751502</v>
+        <v>66.39800808019351</v>
       </c>
       <c r="AD3" t="n">
-        <v>41941.34609958198</v>
+        <v>53647.9842265849</v>
       </c>
       <c r="AE3" t="n">
-        <v>57386.00005486795</v>
+        <v>73403.53880081285</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.147706465824103e-05</v>
+        <v>2.170041687823721e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.357291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>51909.160751502</v>
+        <v>66398.00808019351</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>37.12374422271878</v>
+        <v>37.12383373126983</v>
       </c>
       <c r="AB4" t="n">
-        <v>50.79434462938098</v>
+        <v>50.79446709892935</v>
       </c>
       <c r="AC4" t="n">
-        <v>45.94660366835739</v>
+        <v>45.94671444958396</v>
       </c>
       <c r="AD4" t="n">
-        <v>37123.74422271879</v>
+        <v>37123.83373126983</v>
       </c>
       <c r="AE4" t="n">
-        <v>50794.34462938098</v>
+        <v>50794.46709892935</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3127007676911e-05</v>
+        <v>2.482006919323627e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.186458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>45946.60366835739</v>
+        <v>45946.71444958396</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.40086901724684</v>
+        <v>36.40095852579788</v>
       </c>
       <c r="AB5" t="n">
-        <v>49.80527488225573</v>
+        <v>49.80539735180412</v>
       </c>
       <c r="AC5" t="n">
-        <v>45.05192934972673</v>
+        <v>45.0520401309533</v>
       </c>
       <c r="AD5" t="n">
-        <v>36400.86901724684</v>
+        <v>36400.95852579788</v>
       </c>
       <c r="AE5" t="n">
-        <v>49805.27488225573</v>
+        <v>49805.39735180412</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.34014497943203e-05</v>
+        <v>2.53389743779737e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>45051.92934972674</v>
+        <v>45052.0401309533</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.15823080516337</v>
+        <v>39.7872275893683</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.26382187476371</v>
+        <v>54.43864007620628</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.32566062923974</v>
+        <v>49.24309267254932</v>
       </c>
       <c r="AD2" t="n">
-        <v>30158.23080516337</v>
+        <v>39787.2275893683</v>
       </c>
       <c r="AE2" t="n">
-        <v>41263.82187476371</v>
+        <v>54438.64007620628</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336886460832604e-05</v>
+        <v>3.064901446202656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.394791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>37325.66062923974</v>
+        <v>49243.09267254933</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.37020172514489</v>
+        <v>57.76549239180173</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.44575570924385</v>
+        <v>79.03729512409959</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.39058183104433</v>
+        <v>71.49408660701421</v>
       </c>
       <c r="AD2" t="n">
-        <v>46370.20172514489</v>
+        <v>57765.49239180173</v>
       </c>
       <c r="AE2" t="n">
-        <v>63445.75570924385</v>
+        <v>79037.29512409959</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.860841081529712e-06</v>
+        <v>1.932711224362352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.642708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57390.58183104433</v>
+        <v>71494.08660701421</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.90409028983503</v>
+        <v>34.90417979838607</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.75731619420372</v>
+        <v>47.75743866375211</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.19942496452826</v>
+        <v>43.19953574575482</v>
       </c>
       <c r="AD3" t="n">
-        <v>34904.09028983503</v>
+        <v>34904.17979838607</v>
       </c>
       <c r="AE3" t="n">
-        <v>47757.31619420373</v>
+        <v>47757.43866375211</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.366147400208587e-05</v>
+        <v>2.677630024341679e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.185416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>43199.42496452825</v>
+        <v>43199.53574575482</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.46748862137894</v>
+        <v>34.46757812992999</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.15993852991881</v>
+        <v>47.1600609994672</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.65906018609609</v>
+        <v>42.65917096732266</v>
       </c>
       <c r="AD4" t="n">
-        <v>34467.48862137894</v>
+        <v>34467.57812992999</v>
       </c>
       <c r="AE4" t="n">
-        <v>47159.93852991881</v>
+        <v>47160.0609994672</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.38685861834949e-05</v>
+        <v>2.718223725670176e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.167708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>42659.06018609609</v>
+        <v>42659.17096732266</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.92668999620219</v>
+        <v>65.5725672622066</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.78487633043379</v>
+        <v>89.71927938561727</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.74295129119812</v>
+        <v>81.15659728287511</v>
       </c>
       <c r="AD2" t="n">
-        <v>53926.68999620219</v>
+        <v>65572.5672622066</v>
       </c>
       <c r="AE2" t="n">
-        <v>73784.87633043379</v>
+        <v>89719.27938561726</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.648996851924045e-06</v>
+        <v>1.662945289681086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.834375</v>
       </c>
       <c r="AH2" t="n">
-        <v>66742.95129119813</v>
+        <v>81156.59728287511</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.18522079024795</v>
+        <v>38.185310298799</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.24670369810848</v>
+        <v>52.24682616765686</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.26035162596863</v>
+        <v>47.2604624071952</v>
       </c>
       <c r="AD3" t="n">
-        <v>38185.22079024796</v>
+        <v>38185.310298799</v>
       </c>
       <c r="AE3" t="n">
-        <v>52246.70369810848</v>
+        <v>52246.82616765687</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.256024900847309e-05</v>
+        <v>2.414962946970592e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.263541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>47260.35162596863</v>
+        <v>47260.4624071952</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>35.4159580827743</v>
+        <v>35.41604759132534</v>
       </c>
       <c r="AB4" t="n">
-        <v>48.45767629051312</v>
+        <v>48.4577987600615</v>
       </c>
       <c r="AC4" t="n">
-        <v>43.83294367620953</v>
+        <v>43.8330544574361</v>
       </c>
       <c r="AD4" t="n">
-        <v>35415.9580827743</v>
+        <v>35416.04759132534</v>
       </c>
       <c r="AE4" t="n">
-        <v>48457.67629051312</v>
+        <v>48457.7987600615</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.364725808949118e-05</v>
+        <v>2.623962517911293e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.1625</v>
       </c>
       <c r="AH4" t="n">
-        <v>43832.94367620953</v>
+        <v>43833.0544574361</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.30874899253395</v>
+        <v>98.31635308588274</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.0914380448104</v>
+        <v>134.5207717034275</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.8209569402186</v>
+        <v>121.6822980531772</v>
       </c>
       <c r="AD2" t="n">
-        <v>86308.74899253395</v>
+        <v>98316.35308588274</v>
       </c>
       <c r="AE2" t="n">
-        <v>118091.4380448104</v>
+        <v>134520.7717034275</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.720066870697298e-06</v>
+        <v>1.25189748870663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.279166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>106820.9569402186</v>
+        <v>121682.2980531772</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.95260893843794</v>
+        <v>56.87487217721512</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.50614271869246</v>
+        <v>77.818709255112</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.63608278204662</v>
+        <v>70.39180086306639</v>
       </c>
       <c r="AD3" t="n">
-        <v>44952.60893843794</v>
+        <v>56874.87217721512</v>
       </c>
       <c r="AE3" t="n">
-        <v>61506.14271869246</v>
+        <v>77818.709255112</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078131124880006e-05</v>
+        <v>2.008476513260771e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.420833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>55636.08278204662</v>
+        <v>70391.8008630664</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.78611378289619</v>
+        <v>38.78620329144724</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.06887200017371</v>
+        <v>53.06899446972209</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.00405333920765</v>
+        <v>48.00416412043422</v>
       </c>
       <c r="AD4" t="n">
-        <v>38786.11378289619</v>
+        <v>38786.20329144724</v>
       </c>
       <c r="AE4" t="n">
-        <v>53068.87200017371</v>
+        <v>53068.99446972209</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.272737932396162e-05</v>
+        <v>2.371014235432887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>48004.05333920765</v>
+        <v>48004.16412043422</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.3265616231272</v>
+        <v>37.32665113167825</v>
       </c>
       <c r="AB5" t="n">
-        <v>51.07184834429065</v>
+        <v>51.07197081383903</v>
       </c>
       <c r="AC5" t="n">
-        <v>46.19762281819583</v>
+        <v>46.1977335994224</v>
       </c>
       <c r="AD5" t="n">
-        <v>37326.56162312721</v>
+        <v>37326.65113167826</v>
       </c>
       <c r="AE5" t="n">
-        <v>51071.84834429065</v>
+        <v>51071.97081383903</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319632379212621e-05</v>
+        <v>2.458375033075843e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.160416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>46197.62281819583</v>
+        <v>46197.7335994224</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.46073056642312</v>
+        <v>51.41062185494302</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.36015656226253</v>
+        <v>70.3422808984724</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.07666091853564</v>
+        <v>63.628912335549</v>
       </c>
       <c r="AD2" t="n">
-        <v>40460.73056642312</v>
+        <v>51410.62185494302</v>
       </c>
       <c r="AE2" t="n">
-        <v>55360.15656226253</v>
+        <v>70342.2808984724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.117390289585046e-05</v>
+        <v>2.239805879936086e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50076.66091853564</v>
+        <v>63628.912335549</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.3822416049067</v>
+        <v>33.38233111345774</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.67505568426933</v>
+        <v>45.67517815381772</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.31589247518482</v>
+        <v>41.31600325641138</v>
       </c>
       <c r="AD3" t="n">
-        <v>33382.2416049067</v>
+        <v>33382.33111345774</v>
       </c>
       <c r="AE3" t="n">
-        <v>45675.05568426933</v>
+        <v>45675.17815381772</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408231846494324e-05</v>
+        <v>2.822797011474448e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.177083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>41315.89247518482</v>
+        <v>41316.00325641138</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.96740732439282</v>
+        <v>32.96749683294387</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.10746112047618</v>
+        <v>45.10758359002456</v>
       </c>
       <c r="AC2" t="n">
-        <v>40.80246833993442</v>
+        <v>40.80257912116098</v>
       </c>
       <c r="AD2" t="n">
-        <v>32967.40732439282</v>
+        <v>32967.49683294386</v>
       </c>
       <c r="AE2" t="n">
-        <v>45107.46112047618</v>
+        <v>45107.58359002456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361416489502882e-05</v>
+        <v>2.848168436191365e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.267708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>40802.46833993442</v>
+        <v>40802.57912116098</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.01215241441551</v>
+        <v>32.01224192296655</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.80043920977921</v>
+        <v>43.80056167932759</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.62018676597371</v>
+        <v>39.62029754720027</v>
       </c>
       <c r="AD3" t="n">
-        <v>32012.15241441551</v>
+        <v>32012.24192296655</v>
       </c>
       <c r="AE3" t="n">
-        <v>43800.43920977921</v>
+        <v>43800.56167932759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416533358359986e-05</v>
+        <v>2.963476372734594e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>39620.1867659737</v>
+        <v>39620.29754720027</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.03191464353628</v>
+        <v>31.03200415208732</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.45923464663036</v>
+        <v>42.45935711617874</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.40698488393537</v>
+        <v>38.40709566516193</v>
       </c>
       <c r="AD2" t="n">
-        <v>31031.91464353628</v>
+        <v>31032.00415208732</v>
       </c>
       <c r="AE2" t="n">
-        <v>42459.23464663036</v>
+        <v>42459.35711617874</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.39748863494727e-05</v>
+        <v>3.03793873238946e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.278125</v>
       </c>
       <c r="AH2" t="n">
-        <v>38406.98488393537</v>
+        <v>38407.09566516193</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.91586783607779</v>
+        <v>39.42824517711674</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.93221016816284</v>
+        <v>53.94746450257978</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.02569747849592</v>
+        <v>48.79879420629903</v>
       </c>
       <c r="AD2" t="n">
-        <v>29915.86783607779</v>
+        <v>39428.24517711674</v>
       </c>
       <c r="AE2" t="n">
-        <v>40932.21016816284</v>
+        <v>53947.46450257979</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256198704411424e-05</v>
+        <v>2.987902489985313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.526041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>37025.69747849592</v>
+        <v>48798.79420629903</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.89002805119011</v>
+        <v>61.41328435234353</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.26173737231463</v>
+        <v>84.02836501373386</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.74693296346589</v>
+        <v>76.00881579139397</v>
       </c>
       <c r="AD2" t="n">
-        <v>49890.02805119011</v>
+        <v>61413.28435234353</v>
       </c>
       <c r="AE2" t="n">
-        <v>68261.73737231463</v>
+        <v>84028.36501373386</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.246493978159038e-06</v>
+        <v>1.79435445941067e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61746.93296346589</v>
+        <v>76008.81579139396</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.47684189407492</v>
+        <v>36.47693140262598</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.90922432401819</v>
+        <v>49.90934679356658</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.14595800266165</v>
+        <v>45.14606878388823</v>
       </c>
       <c r="AD3" t="n">
-        <v>36476.84189407493</v>
+        <v>36476.93140262598</v>
       </c>
       <c r="AE3" t="n">
-        <v>49909.22432401819</v>
+        <v>49909.34679356658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.312570386422509e-05</v>
+        <v>2.54714547127898e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.220833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>45145.95800266165</v>
+        <v>45146.06878388822</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.59706267401577</v>
+        <v>34.59715218256682</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.33722746513943</v>
+        <v>47.33734993468781</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.81942891416635</v>
+        <v>42.81953969539293</v>
       </c>
       <c r="AD4" t="n">
-        <v>34597.06267401577</v>
+        <v>34597.15218256682</v>
       </c>
       <c r="AE4" t="n">
-        <v>47337.22746513943</v>
+        <v>47337.34993468781</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.396906388110376e-05</v>
+        <v>2.710806077206957e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.147916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>42819.42891416635</v>
+        <v>42819.53969539293</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.24166120354174</v>
+        <v>92.14324056164546</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.7901808708927</v>
+        <v>126.0744468092664</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.31196010008942</v>
+        <v>114.0420785524207</v>
       </c>
       <c r="AD2" t="n">
-        <v>80241.66120354173</v>
+        <v>92143.24056164545</v>
       </c>
       <c r="AE2" t="n">
-        <v>109790.1808708927</v>
+        <v>126074.4468092664</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16340251751256e-06</v>
+        <v>1.344135281880954e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>99311.96010008942</v>
+        <v>114042.0785524207</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.98162674405471</v>
+        <v>55.79786524758681</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.17760204362683</v>
+        <v>76.34510085980294</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.43433616439029</v>
+        <v>69.05883158478279</v>
       </c>
       <c r="AD3" t="n">
-        <v>43981.62674405471</v>
+        <v>55797.86524758681</v>
       </c>
       <c r="AE3" t="n">
-        <v>60177.60204362683</v>
+        <v>76345.10085980294</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098323145558506e-05</v>
+        <v>2.060885015525123e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>54434.33616439029</v>
+        <v>69058.83158478279</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.48776389608858</v>
+        <v>38.48785340463963</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.66065652277746</v>
+        <v>52.66077899232585</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.63479737403887</v>
+        <v>47.63490815526544</v>
       </c>
       <c r="AD4" t="n">
-        <v>38487.76389608858</v>
+        <v>38487.85340463963</v>
       </c>
       <c r="AE4" t="n">
-        <v>52660.65652277746</v>
+        <v>52660.77899232585</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270216930509498e-05</v>
+        <v>2.383425177862553e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.215625</v>
       </c>
       <c r="AH4" t="n">
-        <v>47634.79737403887</v>
+        <v>47634.90815526544</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>36.95774441899685</v>
+        <v>36.9578339275479</v>
       </c>
       <c r="AB5" t="n">
-        <v>50.56721637453523</v>
+        <v>50.56733884408362</v>
       </c>
       <c r="AC5" t="n">
-        <v>45.74115221537696</v>
+        <v>45.74126299660352</v>
       </c>
       <c r="AD5" t="n">
-        <v>36957.74441899685</v>
+        <v>36957.83392754789</v>
       </c>
       <c r="AE5" t="n">
-        <v>50567.21637453524</v>
+        <v>50567.33884408362</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.325982696506278e-05</v>
+        <v>2.488063627836768e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>1.164583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>45741.15221537695</v>
+        <v>45741.26299660352</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.09017668437372</v>
+        <v>39.25036964760555</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.17070722436384</v>
+        <v>53.70408735578923</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.24143271038653</v>
+        <v>48.57864463281547</v>
       </c>
       <c r="AD2" t="n">
-        <v>30090.17668437372</v>
+        <v>39250.36964760556</v>
       </c>
       <c r="AE2" t="n">
-        <v>41170.70722436384</v>
+        <v>53704.08735578923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.098060904140646e-05</v>
+        <v>2.746166989927999e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.807291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>37241.43271038653</v>
+        <v>48578.64463281547</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.90945164207896</v>
+        <v>34.90954115063001</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.76465183287002</v>
+        <v>47.7647743024184</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.20606050013588</v>
+        <v>43.20617128136245</v>
       </c>
       <c r="AD2" t="n">
-        <v>34909.45164207896</v>
+        <v>34909.54115063001</v>
       </c>
       <c r="AE2" t="n">
-        <v>47764.65183287002</v>
+        <v>47764.77430241839</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292272529372873e-05</v>
+        <v>2.661155443119372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.316666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>43206.06050013588</v>
+        <v>43206.17128136245</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.51744409450556</v>
+        <v>32.51753360305661</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.49180157837072</v>
+        <v>44.49192404791909</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.24556648044207</v>
+        <v>40.24567726166863</v>
       </c>
       <c r="AD3" t="n">
-        <v>32517.44409450556</v>
+        <v>32517.53360305661</v>
       </c>
       <c r="AE3" t="n">
-        <v>44491.80157837072</v>
+        <v>44491.92404791909</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415253567076887e-05</v>
+        <v>2.914408259725576e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>40245.56648044207</v>
+        <v>40245.67726166864</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.56507493472832</v>
+        <v>54.82638226350171</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.60765748113791</v>
+        <v>75.01587498217391</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.91878631102291</v>
+        <v>67.85646515933404</v>
       </c>
       <c r="AD2" t="n">
-        <v>43565.07493472831</v>
+        <v>54826.38226350171</v>
       </c>
       <c r="AE2" t="n">
-        <v>59607.65748113791</v>
+        <v>75015.87498217392</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042952182495218e-05</v>
+        <v>2.06628029330875e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.569791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>53918.78631102291</v>
+        <v>67856.46515933404</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.07441426636233</v>
+        <v>34.07450377491337</v>
       </c>
       <c r="AB3" t="n">
-        <v>46.62211685617102</v>
+        <v>46.62223932571941</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.17256745805173</v>
+        <v>42.17267823927829</v>
       </c>
       <c r="AD3" t="n">
-        <v>34074.41426636233</v>
+        <v>34074.50377491338</v>
       </c>
       <c r="AE3" t="n">
-        <v>46622.11685617102</v>
+        <v>46622.23932571941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388417515134621e-05</v>
+        <v>2.750710721505705e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.179166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>42172.56745805173</v>
+        <v>42172.67823927829</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>34.07269697931786</v>
+        <v>34.0727864878689</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.61976718827542</v>
+        <v>46.6198896578238</v>
       </c>
       <c r="AC4" t="n">
-        <v>42.1704420391623</v>
+        <v>42.17055282038886</v>
       </c>
       <c r="AD4" t="n">
-        <v>34072.69697931786</v>
+        <v>34072.7864878689</v>
       </c>
       <c r="AE4" t="n">
-        <v>46619.76718827542</v>
+        <v>46619.88965782381</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391970747063648e-05</v>
+        <v>2.757750328148972e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>2</v>
+        <v>1.177083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>42170.4420391623</v>
+        <v>42170.55282038886</v>
       </c>
     </row>
   </sheetData>
